--- a/biology/Histoire de la zoologie et de la botanique/Thomas_Jenkinson_Woodward/Thomas_Jenkinson_Woodward.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Thomas_Jenkinson_Woodward/Thomas_Jenkinson_Woodward.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Jenkinson Woodward est un botaniste et phycologue britannique, né en 1745 et mort en 1820.
 Il se spécialise dans l’étude des algues. Il est membre de la Linnean Society of London.
